--- a/excel/수집 제외 도메인 주소.xlsx
+++ b/excel/수집 제외 도메인 주소.xlsx
@@ -5,11 +5,11 @@
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jupyter\community_site_crawling-main\원문기사\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jupyter\community_site_crawling-main\원문기사\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="22515" windowHeight="10650"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="22545" windowHeight="9945"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -32,406 +32,1663 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="131">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="550">
+  <x:si>
+    <x:t>newsfreezone.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fortunekorea.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kor.theasian.asia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1conomynews.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>themusical.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dailysmart.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ceoscoredaily.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>withinnews.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sommeliertimes.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>housingherald.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>asiatime.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ibabynews.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>globale.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>energydaily.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>weekly.donga.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>financialpost.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>theviewers.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>worknworld.kctu.org</x:t>
+  </x:si>
+  <x:si>
+    <x:t>suhyupnews.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dream.kotra.or.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>brainmedia.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>industrynews.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sisamagazine.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>daily.hankooki.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>startuptoday.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>youthdaily.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>enewstoday.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>chungnamilbo.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>shindonga.donga.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>womentimes.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>updownnews.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kookbang.dema.mil.k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>newsculture.press</x:t>
+  </x:si>
+  <x:si>
+    <x:t>econotelling.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>weekly.khan.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>headlinejeju.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>koreaittimes.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>biztribune.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cancerline.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>joongangenews.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>starnewskorea.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>thevaluenews.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>forbeskorea.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>megaeconomy.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pinpointnews.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>catholicpress.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>enter.etoday.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dongascience.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>incheontoday.com</x:t>
+  </x:si>
   <x:si>
     <x:t>goodmorningcc.com</x:t>
   </x:si>
   <x:si>
+    <x:t>catholicnews.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ekoreanews.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>thepowernews.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>seouleconews.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>opinionnews.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>weekly.chosun.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>health.chosun.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>straightnews.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hobbyen-news.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>interview365.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>globalepic.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>weekly.cnbnews.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>wikileaks-kr.org</x:t>
+  </x:si>
+  <x:si>
+    <x:t>harpersbazaar.co.k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>psychiatricnews.net</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gamechosun.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>thetracker.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>journal.kobeta.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pointdaily.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>newsworker.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>labortoday.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>whitepaper.co.kr</x:t>
+  </x:si>
+  <x:si>
     <x:t>digitaltoday.co.kr</x:t>
   </x:si>
   <x:si>
-    <x:t>globalepic.co.kr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>starnewskorea.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>health.chosun.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>weekly.khan.co.kr</x:t>
+    <x:t>catholictimes.org</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fashionbiz.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bravo.etoday.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>choicenews.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sports.donga.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>doctorsnews.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>businesskorea.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>wemakenews.co.kr</x:t>
   </x:si>
   <x:si>
     <x:t>stardailynews.co.kr</x:t>
   </x:si>
   <x:si>
-    <x:t>enter.etoday.co.kr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>weekly.donga.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>gamechosun.co.kr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cancerline.co.kr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>hobbyen-news.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>labortoday.co.kr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>harpersbazaar.co.k</x:t>
-  </x:si>
-  <x:si>
-    <x:t>megaeconomy.co.kr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>shindonga.donga.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>newsculture.press</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dongascience.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>weekly.chosun.com</x:t>
+    <x:t>thefirstmedia.net</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ikoreanspirit.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>doctorstimes.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>insightkorea.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lecturernews.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>golfhankook.hankooki.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dt.co.k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cts.tv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제외 도메인 주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>theguru.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dtnews24.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>siminilbo.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dailysecu.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>starnewk.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mkhealth.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>thespike.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mydaily.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>xportsnews.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>redaily.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jejudomin.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>newsam.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>newslock.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>econonews.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>autodaily.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mediajeju.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>newsjeju.net</x:t>
+  </x:si>
+  <x:si>
+    <x:t>livesnews.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>newsbrite.net</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dhnews.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>monews.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>delighti.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>goodkyung.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>efnews.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>biotimes.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>paxnetnews.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bulkwang.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>electimes.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ferrotimes.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tokenpost.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>the-stock.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gametoc.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>areyou.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tenasia.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>geconomy.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>docdocdoc.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>enetnews.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bizenter.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bigtanews.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fsnews.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nextdaily.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sejungilbo.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mstoday.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bokuennews.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tgdaily.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>econotalking.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>newsfarm.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bulkyo21.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>wonnews.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>medipana.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>incheonin.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>yangsanilbo.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pointe.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>thedrive.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>banronbodo.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lcnews.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>munhwanews.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>golfin.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gvalley.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dandinews.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>babytimes.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fpn119.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>datanet.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>woodkorea.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>newsmin.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jeonmin.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>newsdream.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>imwood.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>newswatch.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nbnews.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ngetnews.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>joynews24.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tvchosun.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kr.aving.net</x:t>
+  </x:si>
+  <x:si>
+    <x:t>the-pr.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>suwonilbo.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gameple.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>newswhoplus.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tvdaily.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ch.yes24.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sisafocus.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>newdaily.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>amnews.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00news.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>siminsori.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>newsway.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>news.unn.net</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tournews21.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>newsian.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>spotvnews.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>wikitree.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tongilnews.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sporbiz.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>akomnews.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>siminilbo.co.k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hansbiz.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>datasom.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hyunbulnews.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>vegannews.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>economytalk.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sisaweek.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>swtvnews.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kfenews.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gukjenews.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>newstomato.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ilemonde.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>s-journal.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>econovill.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>insight.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sisaon.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>newsfc.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mediawatch.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mediafine.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>joseilbo.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>samdailbo.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bizwork.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ftoday.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>socialvalue.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pharmnews.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>civicnews.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>smartfn.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>joongang.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>widedaily.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hg-times.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gqkorea.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>newsroad.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ezyeconomy.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>taxtimes.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>biz.chosun.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jejusori.net</x:t>
+  </x:si>
+  <x:si>
+    <x:t>khgames.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jungle.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>viewsnnews.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dealsite.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>raonnews.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>irobotnews.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>theasian.asia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>economynews.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>businessplus.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>seoultimes.news</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bntnews.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>moneys.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>betanews.net</x:t>
+  </x:si>
+  <x:si>
+    <x:t>getnews.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">joongang.co.kr </x:t>
+  </x:si>
+  <x:si>
+    <x:t>womennews.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>danbinews.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sisunnews.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>boannews.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>inven.co.k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mjmedi.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kdfnews.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ftimes.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>newscj.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>greened.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>beopbo.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>newsmp.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>paxetv.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>finomy.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>zdnet.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nongaek.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>edupress.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ttlnews.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>munhwa.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dt.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kidd.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ujeil.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>intn.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>elle.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>newsis.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>wolyo.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nspna.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>redian.org</x:t>
+  </x:si>
+  <x:si>
+    <x:t>idsn.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>seoulfn.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bosa.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>news1.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>iminju.net</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lkp.news</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tf.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>g-enews.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>e2news.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>apsk.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ifs.or.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rpm9.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fetv.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>handmk.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hellot.net</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gpkorea.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mhnse.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>travie.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dailynk.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ktv.go.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dailypop.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kyosu.net</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ktnews.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ibulgyo.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ikpnews.net</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bbsi.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kbench.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>epnc.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kmaeil.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>newstnt.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>srtimes.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cnet.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nbntv.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mhj21.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>thelec.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>newsgn.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>beminor.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>aptn.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gocj.net</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dkilbo.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>netongs.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gjdream.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jbsori.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hapt.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>aitimes.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gasnews.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>news.ifm.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nc.press</x:t>
+  </x:si>
+  <x:si>
+    <x:t>korea.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pn.or.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>amenews.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ccdn.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>asiaa.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>it-b.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hangyo.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hellodd.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>techm.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sjsori.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ibuan.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kizmom.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jjn.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>thekpm.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tbc.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>arunews.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>press9.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>koit.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>idjnews.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nbntv.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lifein.news</x:t>
+  </x:si>
+  <x:si>
+    <x:t>newspost.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lak.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rcast.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>epj.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>topdaily.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ngonews.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ziksir.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>joongang.tv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tfmedia.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>issuenbiz.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>topstarnews.net</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sctoday.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>econotimes.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>impacton.net</x:t>
+  </x:si>
+  <x:si>
+    <x:t>newsmkt.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ablenews.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>starseoultv.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>safetimes.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pckworld.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bizhankook.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sisajournal.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>welfarenews.net</x:t>
+  </x:si>
+  <x:si>
+    <x:t>newsverse.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>itbiznews.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>polinews.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ilovepc.co.k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>goodnews1.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>voakorea.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gamevu.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>news2day.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ilovepc.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>byline.network</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gosiweek.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>news.ebs.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lawleader.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>shinailbo.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>newstapa.org</x:t>
+  </x:si>
+  <x:si>
+    <x:t>readersnews.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lady.khan.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>maxmovie.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jeonmae.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hankyung.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>todayenergy.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fashionn.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>aflnews.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>100ssd.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ktsketch.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bzeronews.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>laborplus.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ohmynews.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kbiznews.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rightknow.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>klnews.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tvreport.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>veritas-a.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>thepublic.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>popcornnews.net</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sportsq.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mediaus.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bizwnews.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ccreview.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>newsnjoy.or.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>chukkyung.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ntoday.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hitnews.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dongponews.net</x:t>
+  </x:si>
+  <x:si>
+    <x:t>notepet.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>newsclaim.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>incheonnews.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ilyoseoul.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>starnewsk.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fieldnews.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>thescoop.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>newsinside.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>k-health.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>newsquest.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>foodnews.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>worklaw.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>newsworks.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>segyebiz.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>inthenews.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m-joongang.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>job-post.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>celuvmedia.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gameshot.net</x:t>
+  </x:si>
+  <x:si>
+    <x:t>heraldpop.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>coinreaders.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ichannela.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>allurekorea.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ddaily.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kukinews.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>newsprime.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ilyosisa.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>smedaily.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>munhaknews.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>einfomax.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>weeklytoday.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gamefocus.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>agrinet.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dispatch.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>news.mtn.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kdpress.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>thereport.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mdtoday.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>worldkorean.net</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fntoday.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>thisisgame.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>itworld.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ccnnews.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>medicalworldnews.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>news.koreanbar.or.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>news.lghellovision.net</x:t>
+  </x:si>
+  <x:si>
+    <x:t>marieclairekorea.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>digitalchosun.dizzo.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>doc3.koreahealthlog.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jedam15.koreafree.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>news.skbroadband.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>financialreview.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>christiantoday.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>greenpostkorea.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mhj21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bbc.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4th.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ifm.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ppss.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ltn.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cwn.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ikld.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m-i.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cooknchefnews.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>discoverynews.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>traveltimes.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jmagazine.joins.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>weekly.hankooki.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>news.hidoc.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gimhaenews.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>smarttoday.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>esquirekorea.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>huffingtonpost.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>safetynews.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>medicaltimes.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>foodneconomy.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>news.inochong.org</x:t>
+  </x:si>
+  <x:si>
+    <x:t>energy-news.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>apparelnews.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>magazine.joins.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mediagunpo.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>koreareport.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>news.dealsitetv.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>travelitoday.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>niceeconomy.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>golfjournal.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>newmanagement.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dentalnews.or.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>venturesquare.net</x:t>
+  </x:si>
+  <x:si>
+    <x:t>outdoornews.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>marketnews.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>medisobizanews.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fintechpost.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>todaykorea.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>smarttimes.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>koreastocknews.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>news.appstory.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sisajournal-e.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>thefairnews.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sciencetimes.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>weeklytrade.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dailyimpact.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>legaltimes.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kormedi.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cnbnews.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>queen.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>itdaily.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>vogue.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>wkorea.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>joygm.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ize.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>slownews</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ddanzi.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>newstof.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mhns.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cfnews.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>yna.co.kr</x:t>
   </x:si>
   <x:si>
     <x:t>cine21.com</x:t>
   </x:si>
   <x:si>
-    <x:t>ize.co.kr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>elle.co.kr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tf.co.kr</x:t>
+    <x:t>stoo.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>etomato.com</x:t>
   </x:si>
   <x:si>
     <x:t>ildaro.com</x:t>
   </x:si>
   <x:si>
-    <x:t>gpkorea.com</x:t>
+    <x:t>platum.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>chosun.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jtbc.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jin.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>onews.tv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>vmspace.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kpinews.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>atstar1.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>eroun.net</x:t>
+  </x:si>
+  <x:si>
+    <x:t>slist.kr</x:t>
   </x:si>
   <x:si>
     <x:t>lec.co.kr</x:t>
   </x:si>
   <x:si>
-    <x:t>jtbc.co.kr</x:t>
+    <x:t>cstimes.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bloter.net</x:t>
+  </x:si>
+  <x:si>
+    <x:t>apnews.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cbci.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>osen.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>aitimes.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>natv.go.k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dailytw.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kpenews.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ditoday.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mk.co.kr</x:t>
   </x:si>
   <x:si>
     <x:t>inews24.com</x:t>
   </x:si>
   <x:si>
-    <x:t>onews.tv</x:t>
-  </x:si>
-  <x:si>
-    <x:t>platum.kr</x:t>
+    <x:t>mt.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gokorea.kr</x:t>
   </x:si>
   <x:si>
     <x:t>newsen.com</x:t>
   </x:si>
   <x:si>
-    <x:t>rpm9.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>natv.go.k</x:t>
-  </x:si>
-  <x:si>
-    <x:t>queen.co.kr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mhnse.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>news1.kr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제외 도메인 주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>kormedi.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dt.co.kr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mhns.co.kr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>wkorea.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>inven.co.k</x:t>
+    <x:t>jndn.com</x:t>
   </x:si>
   <x:si>
     <x:t>donga.com</x:t>
   </x:si>
   <x:si>
-    <x:t>etomato.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>chosun.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bloter.net</x:t>
-  </x:si>
-  <x:si>
-    <x:t>slownews</x:t>
-  </x:si>
-  <x:si>
-    <x:t>atstar1.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>idsn.co.kr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mk.co.kr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mt.co.kr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>newsis.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>g-enews.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cbci.co.kr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>stoo.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>slist.kr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>yna.co.kr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>osen.co.kr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>munhwa.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>jin.co.kr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>zdnet.co.kr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ddanzi.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>globale.co.kr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>digitalchosun.dizzo.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m-i.kr</x:t>
+    <x:t>mbn.mk.co.kr</x:t>
   </x:si>
   <x:si>
     <x:t>예외처리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>insight.co.kr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tenasia.co.kr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>weeklytoday.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>areyou.co.kr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bntnews.co.kr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>newstapa.org</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tvreport.co.kr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>newsmkt.co.kr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>thescoop.co.kr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>raonnews.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ddaily.co.kr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tvchosun.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>lady.khan.co.kr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ohmynews.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tvdaily.co.kr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ilyosisa.co.kr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>thepublic.kr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>taxtimes.co.kr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mbn.mk.co.kr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sportsq.co.kr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>spotvnews.co.kr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>newsworks.co.kr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>shinailbo.co.kr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>newsprime.co.kr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>starnewk.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>joynews24.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>maxmovie.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>moneys.co.kr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>joongang.co.kr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ichannela.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sisajournal.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>hankyung.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>fashionn.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sisunnews.co.kr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>hg-times.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>newstomato.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>swtvnews.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dispatch.co.kr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>wikitree.co.kr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tfmedia.co.kr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mydaily.co.kr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>newdaily.co.kr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>thespike.co.kr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mediaus.co.kr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ezyeconomy.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>job-post.co.kr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>newsinside.kr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>womennews.co.kr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>starseoultv.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>newsverse.kr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>heraldpop.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>popcornnews.net</x:t>
-  </x:si>
-  <x:si>
-    <x:t>topstarnews.net</x:t>
-  </x:si>
-  <x:si>
-    <x:t>asiatime.co.kr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>vegannews.co.kr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>polinews.co.kr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>gukjenews.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>biz.chosun.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>worklaw.co.kr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>joseilbo.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>news2day.co.kr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>xportsnews.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>fieldnews.kr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tongilnews.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>munhaknews.com</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fonts count="7">
+  <x:fonts count="8">
     <x:font>
       <x:name val="맑은 고딕"/>
       <x:sz val="11"/>
@@ -467,21 +1724,27 @@
         <x:font hs:extension="1">
           <x:name val="맑은 고딕"/>
           <x:sz val="11"/>
-          <x:color rgb="ffff0000"/>
-          <hs:shadowType val="drop"/>
-          <hs:shadowOffsetX val="10"/>
-          <hs:shadowOffsetY val="10"/>
-          <hs:shadowColor rgb="ffc0c0c0"/>
+          <x:color rgb="ff0563c1"/>
+          <x:u/>
+          <hs:underlineType val="1"/>
+          <hs:underlineShape val="solid"/>
+          <hs:underlineColor rgb="ff0563c1"/>
         </x:font>
       </mc:Choice>
       <mc:Fallback>
         <x:font>
           <x:name val="맑은 고딕"/>
           <x:sz val="11"/>
-          <x:color rgb="ffff0000"/>
+          <x:color rgb="ff0563c1"/>
+          <x:u/>
         </x:font>
       </mc:Fallback>
     </mc:AlternateContent>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ffff0000"/>
+    </x:font>
   </x:fonts>
   <x:fills count="3">
     <x:fill>
@@ -527,16 +1790,19 @@
       </x:bottom>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="2">
+  <x:cellStyleXfs count="3">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <x:xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="3">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+  <x:cellXfs count="7">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -552,12 +1818,26 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
   </x:cellXfs>
-  <x:cellStyles count="2">
+  <x:cellStyles count="3">
     <x:cellStyle name="표준" xfId="0" builtinId="0"/>
+    <x:cellStyle name="쉼표" xfId="1" builtinId="3"/>
+    <x:cellStyle name="하이퍼링크" xfId="2" builtinId="8"/>
   </x:cellStyles>
   <x:dxfs/>
   <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -855,679 +2135,2764 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:Q131"/>
+  <x:dimension ref="A1:Q548"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A111" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <x:selection activeCell="D129" activeCellId="0" sqref="D129:D129"/>
+    <x:sheetView tabSelected="1" topLeftCell="A183" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <x:selection activeCell="A2" activeCellId="0" sqref="A2:A723"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
+  <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.39999999999999857891"/>
   <x:cols>
-    <x:col min="1" max="1" width="11.3984375" customWidth="1"/>
-    <x:col min="2" max="2" width="23.19921875" customWidth="1"/>
-    <x:col min="3" max="3" width="16.8984375" customWidth="1"/>
+    <x:col min="1" max="1" width="11.375" customWidth="1"/>
+    <x:col min="2" max="2" width="23.25" customWidth="1"/>
+    <x:col min="3" max="3" width="16.875" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:2" ht="17.39999999999999857891" customHeight="1">
+    <x:row r="1" spans="1:2" ht="17.44999999999999928946" customHeight="1">
       <x:c r="A1" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="B1" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>549</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1">
       <x:c r="A2" t="s">
-        <x:v>42</x:v>
+        <x:v>547</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1">
       <x:c r="A3" t="s">
-        <x:v>58</x:v>
+        <x:v>254</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2">
       <x:c r="A4" t="s">
-        <x:v>49</x:v>
+        <x:v>541</x:v>
       </x:c>
       <x:c r="B4" t="s">
-        <x:v>84</x:v>
+        <x:v>548</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1">
       <x:c r="A5" t="s">
-        <x:v>97</x:v>
+        <x:v>374</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1">
       <x:c r="A6" t="s">
-        <x:v>38</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1">
       <x:c r="A7" t="s">
-        <x:v>94</x:v>
+        <x:v>212</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:1">
       <x:c r="A8" t="s">
-        <x:v>51</x:v>
+        <x:v>260</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:1">
       <x:c r="A9" t="s">
-        <x:v>56</x:v>
+        <x:v>515</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:1">
       <x:c r="A10" t="s">
-        <x:v>123</x:v>
+        <x:v>219</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:1">
       <x:c r="A11" t="s">
-        <x:v>35</x:v>
+        <x:v>267</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:1">
       <x:c r="A12" t="s">
-        <x:v>96</x:v>
+        <x:v>353</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:1">
       <x:c r="A13" t="s">
-        <x:v>4</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:1">
       <x:c r="A14" t="s">
-        <x:v>44</x:v>
+        <x:v>521</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:1">
       <x:c r="A15" t="s">
-        <x:v>125</x:v>
+        <x:v>204</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:1">
       <x:c r="A16" t="s">
-        <x:v>95</x:v>
+        <x:v>420</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:1">
       <x:c r="A17" t="s">
-        <x:v>26</x:v>
+        <x:v>522</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:1">
       <x:c r="A18" t="s">
-        <x:v>22</x:v>
+        <x:v>270</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:1">
       <x:c r="A19" t="s">
-        <x:v>50</x:v>
+        <x:v>543</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:1">
       <x:c r="A20" t="s">
-        <x:v>27</x:v>
+        <x:v>542</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:1">
       <x:c r="A21" t="s">
-        <x:v>76</x:v>
+        <x:v>422</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:1">
       <x:c r="A22" t="s">
-        <x:v>45</x:v>
+        <x:v>532</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:1">
       <x:c r="A23" t="s">
-        <x:v>60</x:v>
+        <x:v>250</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:1">
       <x:c r="A24" t="s">
-        <x:v>71</x:v>
+        <x:v>369</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:1">
       <x:c r="A25" t="s">
-        <x:v>17</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:1">
       <x:c r="A26" t="s">
-        <x:v>43</x:v>
+        <x:v>518</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:1">
       <x:c r="A27" t="s">
-        <x:v>77</x:v>
+        <x:v>163</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:1">
       <x:c r="A28" t="s">
-        <x:v>78</x:v>
+        <x:v>371</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:1">
       <x:c r="A29" t="s">
-        <x:v>15</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:1">
       <x:c r="A30" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:1">
       <x:c r="A31" t="s">
-        <x:v>18</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:1">
       <x:c r="A32" t="s">
-        <x:v>74</x:v>
+        <x:v>405</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:1">
       <x:c r="A33" t="s">
-        <x:v>5</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:1">
       <x:c r="A34" t="s">
-        <x:v>113</x:v>
+        <x:v>236</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:1">
       <x:c r="A35" t="s">
-        <x:v>23</x:v>
+        <x:v>519</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:1">
       <x:c r="A36" t="s">
-        <x:v>37</x:v>
+        <x:v>502</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:1">
       <x:c r="A37" t="s">
-        <x:v>106</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:1">
       <x:c r="A38" t="s">
-        <x:v>109</x:v>
+        <x:v>391</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:1">
       <x:c r="A39" t="s">
-        <x:v>73</x:v>
+        <x:v>347</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:1">
       <x:c r="A40" t="s">
-        <x:v>100</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:1">
       <x:c r="A41" t="s">
-        <x:v>28</x:v>
+        <x:v>524</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:1">
       <x:c r="A42" t="s">
-        <x:v>66</x:v>
+        <x:v>199</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:1">
       <x:c r="A43" t="s">
-        <x:v>86</x:v>
+        <x:v>180</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:1">
       <x:c r="A44" t="s">
-        <x:v>118</x:v>
+        <x:v>343</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:1">
       <x:c r="A45" t="s">
-        <x:v>39</x:v>
+        <x:v>513</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:1">
       <x:c r="A46" t="s">
-        <x:v>30</x:v>
+        <x:v>545</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:1">
       <x:c r="A47" t="s">
-        <x:v>104</x:v>
+        <x:v>181</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:1">
       <x:c r="A48" t="s">
-        <x:v>47</x:v>
+        <x:v>527</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:1">
       <x:c r="A49" t="s">
-        <x:v>127</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:1">
       <x:c r="A50" t="s">
-        <x:v>46</x:v>
+        <x:v>510</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:1">
       <x:c r="A51" t="s">
-        <x:v>72</x:v>
+        <x:v>386</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:1">
       <x:c r="A52" t="s">
-        <x:v>6</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:1">
       <x:c r="A53" t="s">
-        <x:v>79</x:v>
+        <x:v>382</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:1">
       <x:c r="A54" t="s">
-        <x:v>3</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:1">
       <x:c r="A55" t="s">
-        <x:v>116</x:v>
+        <x:v>418</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:1">
       <x:c r="A56" t="s">
-        <x:v>115</x:v>
+        <x:v>355</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:1">
       <x:c r="A57" t="s">
-        <x:v>99</x:v>
+        <x:v>238</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:1">
       <x:c r="A58" t="s">
-        <x:v>83</x:v>
+        <x:v>218</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:1">
       <x:c r="A59" t="s">
-        <x:v>124</x:v>
+        <x:v>410</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:1">
       <x:c r="A60" t="s">
-        <x:v>16</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:1">
       <x:c r="A61" t="s">
-        <x:v>57</x:v>
+        <x:v>535</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:1">
       <x:c r="A62" t="s">
-        <x:v>55</x:v>
+        <x:v>529</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:1">
       <x:c r="A63" t="s">
-        <x:v>7</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:1">
       <x:c r="A64" t="s">
-        <x:v>20</x:v>
+        <x:v>509</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:1">
       <x:c r="A65" t="s">
-        <x:v>122</x:v>
+        <x:v>194</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:1">
       <x:c r="A66" t="s">
-        <x:v>34</x:v>
+        <x:v>280</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:1">
       <x:c r="A67" t="s">
-        <x:v>24</x:v>
+        <x:v>279</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:1">
       <x:c r="A68" t="s">
-        <x:v>12</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:1">
       <x:c r="A69" t="s">
-        <x:v>53</x:v>
+        <x:v>534</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:1">
       <x:c r="A70" t="s">
-        <x:v>91</x:v>
+        <x:v>162</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:1">
       <x:c r="A71" t="s">
-        <x:v>63</x:v>
+        <x:v>446</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:1">
       <x:c r="A72" t="s">
-        <x:v>59</x:v>
+        <x:v>523</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:1">
       <x:c r="A73" t="s">
-        <x:v>103</x:v>
+        <x:v>432</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:1">
       <x:c r="A74" t="s">
-        <x:v>11</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:1">
       <x:c r="A75" t="s">
-        <x:v>107</x:v>
+        <x:v>172</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:1">
       <x:c r="A76" t="s">
-        <x:v>85</x:v>
+        <x:v>390</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:1">
       <x:c r="A77" t="s">
-        <x:v>82</x:v>
+        <x:v>388</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:1">
       <x:c r="A78" t="s">
-        <x:v>119</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:1">
       <x:c r="A79" t="s">
-        <x:v>120</x:v>
+        <x:v>189</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:1">
       <x:c r="A80" t="s">
-        <x:v>2</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:1">
       <x:c r="A81" t="s">
-        <x:v>87</x:v>
+        <x:v>411</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:1">
       <x:c r="A82" t="s">
-        <x:v>92</x:v>
+        <x:v>372</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:1">
       <x:c r="A83" t="s">
-        <x:v>101</x:v>
+        <x:v>195</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:1">
       <x:c r="A84" t="s">
-        <x:v>19</x:v>
+        <x:v>516</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:1">
       <x:c r="A85" t="s">
-        <x:v>102</x:v>
+        <x:v>192</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:1">
       <x:c r="A86" t="s">
-        <x:v>80</x:v>
+        <x:v>169</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:1">
       <x:c r="A87" t="s">
-        <x:v>67</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:1">
       <x:c r="A88" t="s">
-        <x:v>40</x:v>
+        <x:v>507</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:1">
       <x:c r="A89" t="s">
-        <x:v>111</x:v>
+        <x:v>415</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="1:17">
       <x:c r="A90" t="s">
-        <x:v>90</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="Q90" s="2"/>
     </x:row>
     <x:row r="91" spans="1:1">
       <x:c r="A91" t="s">
-        <x:v>126</x:v>
+        <x:v>362</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="1:1">
       <x:c r="A92" t="s">
-        <x:v>75</x:v>
+        <x:v>225</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="1:1">
       <x:c r="A93" t="s">
-        <x:v>2</x:v>
+        <x:v>232</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="1:1">
       <x:c r="A94" t="s">
-        <x:v>93</x:v>
+        <x:v>520</x:v>
       </x:c>
     </x:row>
     <x:row r="95" spans="1:1">
       <x:c r="A95" t="s">
-        <x:v>67</x:v>
+        <x:v>368</x:v>
       </x:c>
     </x:row>
     <x:row r="96" spans="1:1">
       <x:c r="A96" t="s">
-        <x:v>29</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="97" spans="1:1">
       <x:c r="A97" t="s">
-        <x:v>88</x:v>
+        <x:v>461</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="1:1">
       <x:c r="A98" t="s">
-        <x:v>13</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="99" spans="1:1">
       <x:c r="A99" t="s">
-        <x:v>64</x:v>
+        <x:v>240</x:v>
       </x:c>
     </x:row>
     <x:row r="100" spans="1:1">
       <x:c r="A100" t="s">
-        <x:v>9</x:v>
+        <x:v>217</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:1">
       <x:c r="A101" t="s">
-        <x:v>41</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="102" spans="1:1">
       <x:c r="A102" t="s">
-        <x:v>110</x:v>
+        <x:v>259</x:v>
       </x:c>
     </x:row>
     <x:row r="103" spans="1:1">
       <x:c r="A103" t="s">
-        <x:v>10</x:v>
+        <x:v>341</x:v>
       </x:c>
     </x:row>
     <x:row r="104" spans="1:1">
       <x:c r="A104" t="s">
-        <x:v>21</x:v>
+        <x:v>537</x:v>
       </x:c>
     </x:row>
     <x:row r="105" spans="1:1">
       <x:c r="A105" t="s">
-        <x:v>105</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="106" spans="1:1">
       <x:c r="A106" t="s">
-        <x:v>32</x:v>
+        <x:v>264</x:v>
       </x:c>
     </x:row>
     <x:row r="107" spans="1:1">
       <x:c r="A107" t="s">
-        <x:v>108</x:v>
+        <x:v>271</x:v>
       </x:c>
     </x:row>
     <x:row r="108" spans="1:1">
       <x:c r="A108" t="s">
-        <x:v>48</x:v>
+        <x:v>504</x:v>
       </x:c>
     </x:row>
     <x:row r="109" spans="1:1">
       <x:c r="A109" t="s">
-        <x:v>52</x:v>
+        <x:v>275</x:v>
       </x:c>
     </x:row>
     <x:row r="110" spans="1:1">
       <x:c r="A110" t="s">
-        <x:v>33</x:v>
+        <x:v>376</x:v>
       </x:c>
     </x:row>
     <x:row r="111" spans="1:1">
       <x:c r="A111" t="s">
-        <x:v>31</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="112" spans="1:1">
       <x:c r="A112" t="s">
-        <x:v>98</x:v>
+        <x:v>424</x:v>
       </x:c>
     </x:row>
     <x:row r="113" spans="1:1">
       <x:c r="A113" t="s">
-        <x:v>69</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="114" spans="1:1">
       <x:c r="A114" t="s">
-        <x:v>89</x:v>
+        <x:v>389</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:1">
       <x:c r="A115" t="s">
-        <x:v>0</x:v>
+        <x:v>406</x:v>
       </x:c>
     </x:row>
     <x:row r="116" spans="1:1">
       <x:c r="A116" t="s">
-        <x:v>117</x:v>
+        <x:v>349</x:v>
       </x:c>
     </x:row>
     <x:row r="117" spans="1:1">
       <x:c r="A117" t="s">
-        <x:v>112</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="118" spans="1:1">
       <x:c r="A118" t="s">
-        <x:v>114</x:v>
+        <x:v>517</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:1">
       <x:c r="A119" t="s">
-        <x:v>14</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="120" spans="1:1">
       <x:c r="A120" t="s">
-        <x:v>54</x:v>
+        <x:v>357</x:v>
       </x:c>
     </x:row>
     <x:row r="121" spans="1:1">
       <x:c r="A121" t="s">
-        <x:v>1</x:v>
+        <x:v>530</x:v>
       </x:c>
     </x:row>
     <x:row r="122" spans="1:1">
       <x:c r="A122" t="s">
-        <x:v>121</x:v>
+        <x:v>231</x:v>
       </x:c>
     </x:row>
     <x:row r="123" spans="1:1">
       <x:c r="A123" t="s">
-        <x:v>25</x:v>
+        <x:v>429</x:v>
       </x:c>
     </x:row>
     <x:row r="124" spans="1:1">
       <x:c r="A124" t="s">
-        <x:v>70</x:v>
+        <x:v>427</x:v>
       </x:c>
     </x:row>
     <x:row r="125" spans="1:1">
       <x:c r="A125" t="s">
-        <x:v>68</x:v>
+        <x:v>182</x:v>
       </x:c>
     </x:row>
     <x:row r="126" spans="1:1">
       <x:c r="A126" t="s">
-        <x:v>130</x:v>
+        <x:v>404</x:v>
       </x:c>
     </x:row>
     <x:row r="127" spans="1:1">
       <x:c r="A127" t="s">
-        <x:v>129</x:v>
+        <x:v>511</x:v>
       </x:c>
     </x:row>
     <x:row r="128" spans="1:1">
-      <x:c r="A128" t="s">
-        <x:v>128</x:v>
+      <x:c r="A128" s="3" t="s">
+        <x:v>425</x:v>
       </x:c>
     </x:row>
     <x:row r="129" spans="1:1">
       <x:c r="A129" t="s">
-        <x:v>61</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="130" spans="1:1">
-      <x:c r="A130" t="s">
-        <x:v>81</x:v>
+      <x:c r="A130" s="4" t="s">
+        <x:v>439</x:v>
       </x:c>
     </x:row>
     <x:row r="131" spans="1:1">
       <x:c r="A131" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="132" spans="1:1">
+      <x:c r="A132" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="133" spans="1:1">
+      <x:c r="A133" s="3" t="s">
+        <x:v>436</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="134" spans="1:1">
+      <x:c r="A134" t="s">
+        <x:v>526</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="135" spans="1:1">
+      <x:c r="A135" t="s">
+        <x:v>508</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="136" spans="1:1">
+      <x:c r="A136" t="s">
+        <x:v>37</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="137" spans="1:1">
+      <x:c r="A137" s="3" t="s">
+        <x:v>451</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="138" spans="1:1">
+      <x:c r="A138" t="s">
+        <x:v>528</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="139" spans="1:1">
+      <x:c r="A139" t="s">
+        <x:v>120</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="140" spans="1:1">
+      <x:c r="A140" t="s">
+        <x:v>403</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="141" spans="1:1">
+      <x:c r="A141" t="s">
+        <x:v>224</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="142" spans="1:1">
+      <x:c r="A142" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="143" spans="1:1">
+      <x:c r="A143" t="s">
+        <x:v>282</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="144" spans="1:1">
+      <x:c r="A144" t="s">
+        <x:v>284</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="145" spans="1:1">
+      <x:c r="A145" s="3" t="s">
+        <x:v>256</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="146" spans="1:1">
+      <x:c r="A146" s="3" t="s">
+        <x:v>430</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="147" spans="1:1">
+      <x:c r="A147" t="s">
+        <x:v>435</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="148" spans="1:1">
+      <x:c r="A148" t="s">
+        <x:v>223</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="149" spans="1:1">
+      <x:c r="A149" t="s">
+        <x:v>440</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="150" spans="1:1">
+      <x:c r="A150" s="3" t="s">
+        <x:v>512</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="151" spans="1:1">
+      <x:c r="A151" s="3" t="s">
+        <x:v>91</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="152" spans="1:1">
+      <x:c r="A152" s="3" t="s">
+        <x:v>45</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="153" spans="1:1">
+      <x:c r="A153" t="s">
+        <x:v>503</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="154" spans="1:1">
+      <x:c r="A154" s="3" t="s">
+        <x:v>228</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="155" spans="1:1">
+      <x:c r="A155" t="s">
+        <x:v>175</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="156" spans="1:1">
+      <x:c r="A156" t="s">
+        <x:v>381</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="157" spans="1:1">
+      <x:c r="A157" t="s">
+        <x:v>413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="158" spans="1:1">
+      <x:c r="A158" t="s">
+        <x:v>210</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="159" spans="1:1">
+      <x:c r="A159" s="3" t="s">
+        <x:v>546</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="160" spans="1:1">
+      <x:c r="A160" t="s">
+        <x:v>514</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="161" spans="1:1">
+      <x:c r="A161" s="3" t="s">
+        <x:v>367</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="162" spans="1:1">
+      <x:c r="A162" s="3" t="s">
+        <x:v>170</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="163" spans="1:1">
+      <x:c r="A163" t="s">
+        <x:v>378</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="164" spans="1:1">
+      <x:c r="A164" t="s">
+        <x:v>506</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="165" spans="1:1">
+      <x:c r="A165" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="166" spans="1:1">
+      <x:c r="A166" s="3" t="s">
+        <x:v>531</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="167" spans="1:1">
+      <x:c r="A167" s="3" t="s">
+        <x:v>200</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="168" spans="1:1">
+      <x:c r="A168" s="3" t="s">
+        <x:v>222</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="169" spans="1:1">
+      <x:c r="A169" t="s">
+        <x:v>61</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="170" spans="1:1">
+      <x:c r="A170" s="3" t="s">
+        <x:v>416</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="171" spans="1:1">
+      <x:c r="A171" t="s">
+        <x:v>544</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="172" spans="1:1">
+      <x:c r="A172" s="3" t="s">
+        <x:v>423</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="173" spans="1:1">
+      <x:c r="A173" s="5" t="s">
+        <x:v>77</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="174" spans="1:1">
+      <x:c r="A174" s="5" t="s">
+        <x:v>88</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="175" spans="1:1">
+      <x:c r="A175" s="6" t="s">
+        <x:v>235</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="176" spans="1:1">
+      <x:c r="A176" s="5" t="s">
         <x:v>62</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="177" spans="1:1">
+      <x:c r="A177" s="5" t="s">
+        <x:v>193</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="178" spans="1:1">
+      <x:c r="A178" s="5" t="s">
+        <x:v>252</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="179" spans="1:1">
+      <x:c r="A179" s="5" t="s">
+        <x:v>242</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="180" spans="1:1">
+      <x:c r="A180" s="5" t="s">
+        <x:v>360</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="181" spans="1:1">
+      <x:c r="A181" s="5" t="s">
+        <x:v>453</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="182" spans="1:1">
+      <x:c r="A182" s="5" t="s">
+        <x:v>540</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="183" spans="1:1">
+      <x:c r="A183" s="5" t="s">
+        <x:v>263</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="184" spans="1:1">
+      <x:c r="A184" s="5" t="s">
+        <x:v>185</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="185" spans="1:1">
+      <x:c r="A185" s="5" t="s">
+        <x:v>457</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="186" spans="1:1">
+      <x:c r="A186" s="5" t="s">
+        <x:v>433</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="187" spans="1:1">
+      <x:c r="A187" s="5" t="s">
+        <x:v>285</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="188" spans="1:1">
+      <x:c r="A188" s="5" t="s">
+        <x:v>417</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="189" spans="1:1">
+      <x:c r="A189" s="5" t="s">
+        <x:v>375</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="190" spans="1:1">
+      <x:c r="A190" s="5" t="s">
+        <x:v>227</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="191" spans="1:1">
+      <x:c r="A191" s="5" t="s">
+        <x:v>33</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="192" spans="1:1">
+      <x:c r="A192" s="5" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="193" spans="1:1">
+      <x:c r="A193" s="5" t="s">
+        <x:v>399</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="194" spans="1:1">
+      <x:c r="A194" s="5" t="s">
+        <x:v>54</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="195" spans="1:1">
+      <x:c r="A195" s="5" t="s">
+        <x:v>215</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="196" spans="1:1">
+      <x:c r="A196" s="5" t="s">
+        <x:v>412</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="197" spans="1:1">
+      <x:c r="A197" s="5" t="s">
+        <x:v>208</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="198" spans="1:1">
+      <x:c r="A198" s="5" t="s">
+        <x:v>366</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="199" spans="1:1">
+      <x:c r="A199" s="5" t="s">
+        <x:v>69</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="200" spans="1:1">
+      <x:c r="A200" s="5" t="s">
+        <x:v>257</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="201" spans="1:1">
+      <x:c r="A201" s="5" t="s">
+        <x:v>203</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="202" spans="1:1">
+      <x:c r="A202" s="5" t="s">
+        <x:v>52</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="203" spans="1:1">
+      <x:c r="A203" s="5" t="s">
+        <x:v>265</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="204" spans="1:1">
+      <x:c r="A204" s="5" t="s">
+        <x:v>358</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="205" spans="1:1">
+      <x:c r="A205" s="5" t="s">
+        <x:v>114</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="206" spans="1:1">
+      <x:c r="A206" s="5" t="s">
+        <x:v>262</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="207" spans="1:1">
+      <x:c r="A207" s="5" t="s">
+        <x:v>421</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="208" spans="1:1">
+      <x:c r="A208" s="5" t="s">
+        <x:v>258</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="209" spans="1:1">
+      <x:c r="A209" s="5" t="s">
+        <x:v>344</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="210" spans="1:1">
+      <x:c r="A210" s="5" t="s">
+        <x:v>78</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="211" spans="1:1">
+      <x:c r="A211" s="5" t="s">
+        <x:v>539</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="212" spans="1:1">
+      <x:c r="A212" s="5" t="s">
+        <x:v>363</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="213" spans="1:1">
+      <x:c r="A213" s="5" t="s">
+        <x:v>82</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="214" spans="1:1">
+      <x:c r="A214" s="5" t="s">
+        <x:v>230</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="215" spans="1:1">
+      <x:c r="A215" s="5" t="s">
+        <x:v>67</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="216" spans="1:1">
+      <x:c r="A216" s="5" t="s">
+        <x:v>297</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="217" spans="1:1">
+      <x:c r="A217" s="5" t="s">
+        <x:v>277</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="218" spans="1:1">
+      <x:c r="A218" s="5" t="s">
+        <x:v>71</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="219" spans="1:1">
+      <x:c r="A219" s="5" t="s">
+        <x:v>205</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="220" spans="1:1">
+      <x:c r="A220" s="5" t="s">
+        <x:v>93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="221" spans="1:1">
+      <x:c r="A221" s="5" t="s">
+        <x:v>298</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="222" spans="1:1">
+      <x:c r="A222" s="5" t="s">
+        <x:v>278</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="223" spans="1:1">
+      <x:c r="A223" s="5" t="s">
+        <x:v>274</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="224" spans="1:1">
+      <x:c r="A224" s="5" t="s">
+        <x:v>59</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="225" spans="1:1">
+      <x:c r="A225" s="5" t="s">
+        <x:v>196</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="226" spans="1:1">
+      <x:c r="A226" s="5" t="s">
+        <x:v>239</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="227" spans="1:1">
+      <x:c r="A227" s="5" t="s">
+        <x:v>345</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="228" spans="1:1">
+      <x:c r="A228" s="5" t="s">
+        <x:v>441</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="229" spans="1:1">
+      <x:c r="A229" s="5" t="s">
+        <x:v>202</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="230" spans="1:1">
+      <x:c r="A230" s="5" t="s">
+        <x:v>361</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="231" spans="1:1">
+      <x:c r="A231" s="5" t="s">
+        <x:v>283</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="232" spans="1:1">
+      <x:c r="A232" s="5" t="s">
+        <x:v>108</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="233" spans="1:1">
+      <x:c r="A233" s="5" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="234" spans="1:1">
+      <x:c r="A234" s="5" t="s">
+        <x:v>276</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="235" spans="1:1">
+      <x:c r="A235" s="5" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="236" spans="1:1">
+      <x:c r="A236" s="5" t="s">
+        <x:v>273</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="237" spans="1:1">
+      <x:c r="A237" s="5" t="s">
+        <x:v>538</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="238" spans="1:1">
+      <x:c r="A238" s="5" t="s">
+        <x:v>348</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="239" spans="1:1">
+      <x:c r="A239" s="5" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="240" spans="1:1">
+      <x:c r="A240" s="5" t="s">
+        <x:v>505</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="241" spans="1:1">
+      <x:c r="A241" s="5" t="s">
+        <x:v>428</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="242" spans="1:1">
+      <x:c r="A242" s="5" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="243" spans="1:1">
+      <x:c r="A243" s="5" t="s">
+        <x:v>198</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="244" spans="1:1">
+      <x:c r="A244" s="5" t="s">
+        <x:v>245</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="245" spans="1:1">
+      <x:c r="A245" s="5" t="s">
+        <x:v>536</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="246" spans="1:1">
+      <x:c r="A246" s="5" t="s">
+        <x:v>209</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="247" spans="1:1">
+      <x:c r="A247" s="5" t="s">
+        <x:v>247</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="248" spans="1:1">
+      <x:c r="A248" s="5" t="s">
+        <x:v>229</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="249" spans="1:1">
+      <x:c r="A249" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="250" spans="1:1">
+      <x:c r="A250" s="5" t="s">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="251" spans="1:1">
+      <x:c r="A251" s="5" t="s">
+        <x:v>86</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="252" spans="1:1">
+      <x:c r="A252" s="5" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="253" spans="1:1">
+      <x:c r="A253" s="5" t="s">
+        <x:v>525</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="254" spans="1:1">
+      <x:c r="A254" s="5" t="s">
+        <x:v>266</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="255" spans="1:1">
+      <x:c r="A255" s="5" t="s">
+        <x:v>407</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="256" spans="1:1">
+      <x:c r="A256" s="5" t="s">
+        <x:v>44</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="257" spans="1:1">
+      <x:c r="A257" s="5" t="s">
+        <x:v>213</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="258" spans="1:1">
+      <x:c r="A258" s="5" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="259" spans="1:1">
+      <x:c r="A259" s="5" t="s">
+        <x:v>533</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="260" spans="1:1">
+      <x:c r="A260" s="5" t="s">
+        <x:v>164</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="261" spans="1:1">
+      <x:c r="A261" s="5" t="s">
+        <x:v>221</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="262" spans="1:1">
+      <x:c r="A262" s="5" t="s">
+        <x:v>246</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="263" spans="1:1">
+      <x:c r="A263" s="5" t="s">
+        <x:v>419</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="264" spans="1:1">
+      <x:c r="A264" s="5" t="s">
+        <x:v>346</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="265" spans="1:1">
+      <x:c r="A265" s="5" t="s">
+        <x:v>233</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="266" spans="1:1">
+      <x:c r="A266" s="5" t="s">
+        <x:v>237</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="267" spans="1:1">
+      <x:c r="A267" s="5" t="s">
+        <x:v>409</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="268" spans="1:1">
+      <x:c r="A268" s="5" t="s">
+        <x:v>434</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="269" spans="1:1">
+      <x:c r="A269" s="5" t="s">
+        <x:v>226</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="270" spans="1:1">
+      <x:c r="A270" s="5" t="s">
+        <x:v>206</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="271" spans="1:1">
+      <x:c r="A271" s="5" t="s">
+        <x:v>220</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="272" spans="1:1">
+      <x:c r="A272" s="5" t="s">
+        <x:v>249</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="273" spans="1:1">
+      <x:c r="A273" s="5" t="s">
+        <x:v>66</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="274" spans="1:1">
+      <x:c r="A274" s="5" t="s">
+        <x:v>269</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="275" spans="1:1">
+      <x:c r="A275" s="5" t="s">
+        <x:v>50</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="276" spans="1:1">
+      <x:c r="A276" s="5" t="s">
+        <x:v>253</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="277" spans="1:1">
+      <x:c r="A277" s="5" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="278" spans="1:1">
+      <x:c r="A278" s="5" t="s">
+        <x:v>248</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="279" spans="1:1">
+      <x:c r="A279" s="5" t="s">
+        <x:v>241</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="280" spans="1:1">
+      <x:c r="A280" s="5" t="s">
+        <x:v>216</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="281" spans="1:1">
+      <x:c r="A281" s="5" t="s">
+        <x:v>426</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="282" spans="1:1">
+      <x:c r="A282" s="5" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="283" spans="1:1">
+      <x:c r="A283" s="5" t="s">
+        <x:v>211</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="284" spans="1:1">
+      <x:c r="A284" s="5" t="s">
+        <x:v>261</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="285" spans="1:1">
+      <x:c r="A285" s="5" t="s">
+        <x:v>251</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="286" spans="1:1">
+      <x:c r="A286" s="5" t="s">
+        <x:v>64</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="287" spans="1:1">
+      <x:c r="A287" s="5" t="s">
+        <x:v>197</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="288" spans="1:1">
+      <x:c r="A288" s="5" t="s">
+        <x:v>268</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="289" spans="1:1">
+      <x:c r="A289" s="5" t="s">
+        <x:v>207</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="290" spans="1:1">
+      <x:c r="A290" s="5" t="s">
+        <x:v>234</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="291" spans="1:1">
+      <x:c r="A291" s="5" t="s">
+        <x:v>201</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="292" spans="1:1">
+      <x:c r="A292" s="5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="293" spans="1:1">
+      <x:c r="A293" s="5" t="s">
+        <x:v>289</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="294" spans="1:1">
+      <x:c r="A294" s="5" t="s">
+        <x:v>84</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="295" spans="1:1">
+      <x:c r="A295" s="5" t="s">
+        <x:v>438</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="296" spans="1:1">
+      <x:c r="A296" s="5" t="s">
+        <x:v>383</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="297" spans="1:1">
+      <x:c r="A297" s="5" t="s">
+        <x:v>393</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="298" spans="1:1">
+      <x:c r="A298" s="5" t="s">
+        <x:v>402</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="299" spans="1:1">
+      <x:c r="A299" s="5" t="s">
+        <x:v>394</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="300" spans="1:1">
+      <x:c r="A300" s="5" t="s">
+        <x:v>342</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="301" spans="1:1">
+      <x:c r="A301" s="5" t="s">
+        <x:v>92</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="302" spans="1:1">
+      <x:c r="A302" s="5" t="s">
+        <x:v>287</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="303" spans="1:1">
+      <x:c r="A303" s="5" t="s">
+        <x:v>313</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="304" spans="1:1">
+      <x:c r="A304" s="5" t="s">
+        <x:v>467</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="305" spans="1:1">
+      <x:c r="A305" s="5" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="306" spans="1:1">
+      <x:c r="A306" s="5" t="s">
+        <x:v>364</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="307" spans="1:1">
+      <x:c r="A307" s="5" t="s">
+        <x:v>458</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="308" spans="1:1">
+      <x:c r="A308" s="5" t="s">
+        <x:v>73</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="309" spans="1:1">
+      <x:c r="A309" s="5" t="s">
+        <x:v>370</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="310" spans="1:1">
+      <x:c r="A310" s="5" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="311" spans="1:1">
+      <x:c r="A311" s="5" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="312" spans="1:1">
+      <x:c r="A312" s="5" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="313" spans="1:1">
+      <x:c r="A313" s="5" t="s">
+        <x:v>51</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="314" spans="1:1">
+      <x:c r="A314" s="5" t="s">
+        <x:v>281</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="315" spans="1:1">
+      <x:c r="A315" s="5" t="s">
+        <x:v>387</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="316" spans="1:1">
+      <x:c r="A316" s="5" t="s">
+        <x:v>306</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="317" spans="1:1">
+      <x:c r="A317" s="5" t="s">
+        <x:v>296</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="318" spans="1:1">
+      <x:c r="A318" s="5" t="s">
+        <x:v>53</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="319" spans="1:1">
+      <x:c r="A319" s="5" t="s">
+        <x:v>471</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="320" spans="1:1">
+      <x:c r="A320" s="5" t="s">
+        <x:v>455</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="321" spans="1:1">
+      <x:c r="A321" s="5" t="s">
+        <x:v>408</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="322" spans="1:1">
+      <x:c r="A322" s="5" t="s">
+        <x:v>188</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="323" spans="1:1">
+      <x:c r="A323" s="5" t="s">
+        <x:v>292</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="324" spans="1:1">
+      <x:c r="A324" s="5" t="s">
+        <x:v>396</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="325" spans="1:1">
+      <x:c r="A325" s="5" t="s">
+        <x:v>359</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="326" spans="1:1">
+      <x:c r="A326" s="5" t="s">
+        <x:v>397</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="327" spans="1:1">
+      <x:c r="A327" s="5" t="s">
+        <x:v>414</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="328" spans="1:1">
+      <x:c r="A328" s="5" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="329" spans="1:1">
+      <x:c r="A329" s="5" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="330" spans="1:1">
+      <x:c r="A330" s="5" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="331" spans="1:1">
+      <x:c r="A331" s="5" t="s">
+        <x:v>401</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="332" spans="1:1">
+      <x:c r="A332" s="5" t="s">
+        <x:v>469</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="333" spans="1:1">
+      <x:c r="A333" s="5" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="334" spans="1:1">
+      <x:c r="A334" s="5" t="s">
+        <x:v>294</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="335" spans="1:1">
+      <x:c r="A335" s="5" t="s">
+        <x:v>179</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="336" spans="1:1">
+      <x:c r="A336" s="5" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="337" spans="1:1">
+      <x:c r="A337" s="5" t="s">
+        <x:v>392</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="338" spans="1:1">
+      <x:c r="A338" s="5" t="s">
+        <x:v>291</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="339" spans="1:1">
+      <x:c r="A339" s="5" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="340" spans="1:1">
+      <x:c r="A340" s="5" t="s">
+        <x:v>450</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="341" spans="1:1">
+      <x:c r="A341" s="5" t="s">
+        <x:v>488</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="342" spans="1:1">
+      <x:c r="A342" s="5" t="s">
+        <x:v>300</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="343" spans="1:1">
+      <x:c r="A343" s="5" t="s">
+        <x:v>87</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="344" spans="1:1">
+      <x:c r="A344" s="5" t="s">
+        <x:v>286</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="345" spans="1:1">
+      <x:c r="A345" s="5" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="346" spans="1:1">
+      <x:c r="A346" s="5" t="s">
+        <x:v>174</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="347" spans="1:1">
+      <x:c r="A347" s="5" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="348" spans="1:1">
+      <x:c r="A348" s="5" t="s">
+        <x:v>485</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="349" spans="1:1">
+      <x:c r="A349" s="5" t="s">
+        <x:v>444</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="350" spans="1:1">
+      <x:c r="A350" s="5" t="s">
+        <x:v>472</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="351" spans="1:1">
+      <x:c r="A351" s="5" t="s">
+        <x:v>314</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="352" spans="1:1">
+      <x:c r="A352" s="5" t="s">
+        <x:v>68</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="353" spans="1:1">
+      <x:c r="A353" s="5" t="s">
+        <x:v>293</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="354" spans="1:1">
+      <x:c r="A354" s="5" t="s">
+        <x:v>176</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="355" spans="1:1">
+      <x:c r="A355" s="5" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="356" spans="1:1">
+      <x:c r="A356" s="5" t="s">
+        <x:v>290</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="357" spans="1:1">
+      <x:c r="A357" s="5" t="s">
+        <x:v>380</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="358" spans="1:1">
+      <x:c r="A358" s="5" t="s">
+        <x:v>437</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="359" spans="1:1">
+      <x:c r="A359" s="5" t="s">
+        <x:v>272</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="360" spans="1:1">
+      <x:c r="A360" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="361" spans="1:1">
+      <x:c r="A361" s="5" t="s">
+        <x:v>379</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="362" spans="1:1">
+      <x:c r="A362" s="5" t="s">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="363" spans="1:1">
+      <x:c r="A363" s="5" t="s">
+        <x:v>365</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="364" spans="1:1">
+      <x:c r="A364" s="5" t="s">
+        <x:v>491</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="365" spans="1:1">
+      <x:c r="A365" s="5" t="s">
+        <x:v>431</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="366" spans="1:1">
+      <x:c r="A366" s="5" t="s">
+        <x:v>476</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="367" spans="1:1">
+      <x:c r="A367" s="5" t="s">
+        <x:v>243</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="368" spans="1:1">
+      <x:c r="A368" s="5" t="s">
+        <x:v>244</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="369" spans="1:1">
+      <x:c r="A369" s="5" t="s">
+        <x:v>295</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="370" spans="1:1">
+      <x:c r="A370" s="5" t="s">
+        <x:v>303</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="371" spans="1:1">
+      <x:c r="A371" s="5" t="s">
+        <x:v>79</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="372" spans="1:1">
+      <x:c r="A372" s="5" t="s">
+        <x:v>307</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="373" spans="1:1">
+      <x:c r="A373" s="5" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="374" spans="1:1">
+      <x:c r="A374" s="5" t="s">
+        <x:v>305</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="375" spans="1:1">
+      <x:c r="A375" s="5" t="s">
+        <x:v>304</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="376" spans="1:1">
+      <x:c r="A376" s="5" t="s">
+        <x:v>186</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="377" spans="1:1">
+      <x:c r="A377" s="5" t="s">
+        <x:v>75</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="378" spans="1:1">
+      <x:c r="A378" s="5" t="s">
+        <x:v>486</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="379" spans="1:1">
+      <x:c r="A379" s="5" t="s">
+        <x:v>377</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="380" spans="1:1">
+      <x:c r="A380" s="5" t="s">
+        <x:v>470</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="381" spans="1:1">
+      <x:c r="A381" s="5" t="s">
+        <x:v>395</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="382" spans="1:1">
+      <x:c r="A382" s="5" t="s">
+        <x:v>288</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="383" spans="1:1">
+      <x:c r="A383" s="5" t="s">
+        <x:v>465</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="384" spans="1:1">
+      <x:c r="A384" s="5" t="s">
+        <x:v>191</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="385" spans="1:1">
+      <x:c r="A385" s="5" t="s">
+        <x:v>187</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="386" spans="1:1">
+      <x:c r="A386" s="5" t="s">
+        <x:v>76</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="387" spans="1:1">
+      <x:c r="A387" s="5" t="s">
+        <x:v>311</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="388" spans="1:1">
+      <x:c r="A388" s="5" t="s">
+        <x:v>184</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="389" spans="1:1">
+      <x:c r="A389" s="5" t="s">
+        <x:v>475</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="390" spans="1:1">
+      <x:c r="A390" s="5" t="s">
+        <x:v>481</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="391" spans="1:1">
+      <x:c r="A391" s="5" t="s">
+        <x:v>177</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="392" spans="1:1">
+      <x:c r="A392" s="5" t="s">
+        <x:v>319</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="393" spans="1:1">
+      <x:c r="A393" s="5" t="s">
+        <x:v>317</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="394" spans="1:1">
+      <x:c r="A394" s="5" t="s">
+        <x:v>166</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="395" spans="1:1">
+      <x:c r="A395" s="5" t="s">
+        <x:v>308</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="396" spans="1:1">
+      <x:c r="A396" s="5" t="s">
+        <x:v>80</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="397" spans="1:1">
+      <x:c r="A397" s="5" t="s">
+        <x:v>168</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="398" spans="1:1">
+      <x:c r="A398" s="5" t="s">
+        <x:v>165</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="399" spans="1:1">
+      <x:c r="A399" s="5" t="s">
+        <x:v>183</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="400" spans="1:1">
+      <x:c r="A400" s="5" t="s">
+        <x:v>167</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="401" spans="1:1">
+      <x:c r="A401" s="5" t="s">
+        <x:v>74</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="402" spans="1:1">
+      <x:c r="A402" s="5" t="s">
+        <x:v>463</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="403" spans="1:1">
+      <x:c r="A403" s="5" t="s">
+        <x:v>460</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="404" spans="1:1">
+      <x:c r="A404" s="5" t="s">
+        <x:v>89</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="405" spans="1:1">
+      <x:c r="A405" s="5" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="406" spans="1:1">
+      <x:c r="A406" s="5" t="s">
+        <x:v>173</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="407" spans="1:1">
+      <x:c r="A407" s="5" t="s">
+        <x:v>178</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="408" spans="1:1">
+      <x:c r="A408" s="5" t="s">
+        <x:v>384</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="409" spans="1:1">
+      <x:c r="A409" s="5" t="s">
+        <x:v>328</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="410" spans="1:1">
+      <x:c r="A410" s="5" t="s">
+        <x:v>400</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="411" spans="1:1">
+      <x:c r="A411" s="5" t="s">
+        <x:v>310</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="412" spans="1:1">
+      <x:c r="A412" s="5" t="s">
+        <x:v>373</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="413" spans="1:1">
+      <x:c r="A413" s="5" t="s">
+        <x:v>190</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="414" spans="1:1">
+      <x:c r="A414" s="5" t="s">
+        <x:v>398</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="415" spans="1:1">
+      <x:c r="A415" s="5" t="s">
+        <x:v>299</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="416" spans="1:1">
+      <x:c r="A416" s="5" t="s">
+        <x:v>85</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="417" spans="1:1">
+      <x:c r="A417" s="5" t="s">
+        <x:v>490</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="418" spans="1:1">
+      <x:c r="A418" s="5" t="s">
+        <x:v>329</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="419" spans="1:1">
+      <x:c r="A419" s="5" t="s">
+        <x:v>316</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="420" spans="1:1">
+      <x:c r="A420" s="5" t="s">
+        <x:v>466</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="421" spans="1:1">
+      <x:c r="A421" s="5" t="s">
+        <x:v>385</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="422" spans="1:1">
+      <x:c r="A422" s="5" t="s">
+        <x:v>83</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="423" spans="1:1">
+      <x:c r="A423" s="5" t="s">
+        <x:v>161</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="424" spans="1:1">
+      <x:c r="A424" s="5" t="s">
+        <x:v>493</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="425" spans="1:1">
+      <x:c r="A425" s="5" t="s">
+        <x:v>352</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="426" spans="1:1">
+      <x:c r="A426" s="5" t="s">
+        <x:v>473</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="427" spans="1:1">
+      <x:c r="A427" s="5" t="s">
+        <x:v>116</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="428" spans="1:1">
+      <x:c r="A428" s="5" t="s">
+        <x:v>496</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="429" spans="1:1">
+      <x:c r="A429" s="5" t="s">
+        <x:v>103</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="430" spans="1:1">
+      <x:c r="A430" s="5" t="s">
+        <x:v>499</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="431" spans="1:1">
+      <x:c r="A431" s="5" t="s">
+        <x:v>309</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="432" spans="1:1">
+      <x:c r="A432" s="5" t="s">
+        <x:v>115</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="433" spans="1:1">
+      <x:c r="A433" s="5" t="s">
+        <x:v>501</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="434" spans="1:1">
+      <x:c r="A434" s="5" t="s">
+        <x:v>448</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="435" spans="1:1">
+      <x:c r="A435" s="5" t="s">
+        <x:v>487</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="436" spans="1:1">
+      <x:c r="A436" s="5" t="s">
+        <x:v>110</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="437" spans="1:1">
+      <x:c r="A437" s="5" t="s">
+        <x:v>351</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="438" spans="1:1">
+      <x:c r="A438" s="5" t="s">
+        <x:v>117</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="439" spans="1:1">
+      <x:c r="A439" s="5" t="s">
+        <x:v>354</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="440" spans="1:1">
+      <x:c r="A440" s="5" t="s">
+        <x:v>322</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="441" spans="1:1">
+      <x:c r="A441" s="5" t="s">
+        <x:v>452</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="442" spans="1:1">
+      <x:c r="A442" s="5" t="s">
+        <x:v>301</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="443" spans="1:1">
+      <x:c r="A443" s="5" t="s">
+        <x:v>445</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="444" spans="1:1">
+      <x:c r="A444" s="5" t="s">
+        <x:v>150</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="445" spans="1:1">
+      <x:c r="A445" s="5" t="s">
+        <x:v>126</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="446" spans="1:1">
+      <x:c r="A446" s="5" t="s">
+        <x:v>447</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="447" spans="1:1">
+      <x:c r="A447" s="5" t="s">
+        <x:v>327</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="448" spans="1:1">
+      <x:c r="A448" s="5" t="s">
+        <x:v>113</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="449" spans="1:1">
+      <x:c r="A449" s="5" t="s">
+        <x:v>129</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="450" spans="1:1">
+      <x:c r="A450" s="5" t="s">
+        <x:v>468</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="451" spans="1:1">
+      <x:c r="A451" s="5" t="s">
+        <x:v>107</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="452" spans="1:1">
+      <x:c r="A452" s="5" t="s">
+        <x:v>318</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="453" spans="1:1">
+      <x:c r="A453" s="5" t="s">
+        <x:v>456</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="454" spans="1:1">
+      <x:c r="A454" s="5" t="s">
+        <x:v>442</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="455" spans="1:1">
+      <x:c r="A455" s="5" t="s">
+        <x:v>339</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="456" spans="1:1">
+      <x:c r="A456" s="5" t="s">
+        <x:v>478</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="457" spans="1:1">
+      <x:c r="A457" s="5" t="s">
+        <x:v>121</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="458" spans="1:1">
+      <x:c r="A458" s="5" t="s">
+        <x:v>118</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="459" spans="1:1">
+      <x:c r="A459" s="5" t="s">
+        <x:v>335</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="460" spans="1:1">
+      <x:c r="A460" s="5" t="s">
+        <x:v>96</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="461" spans="1:1">
+      <x:c r="A461" s="5" t="s">
+        <x:v>109</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="462" spans="1:1">
+      <x:c r="A462" s="5" t="s">
+        <x:v>315</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="463" spans="1:1">
+      <x:c r="A463" s="5" t="s">
+        <x:v>106</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="464" spans="1:1">
+      <x:c r="A464" s="5" t="s">
+        <x:v>350</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="465" spans="1:1">
+      <x:c r="A465" s="5" t="s">
+        <x:v>330</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="466" spans="1:1">
+      <x:c r="A466" s="5" t="s">
+        <x:v>480</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="467" spans="1:1">
+      <x:c r="A467" s="5" t="s">
+        <x:v>333</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="468" spans="1:1">
+      <x:c r="A468" s="5" t="s">
+        <x:v>483</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="469" spans="1:1">
+      <x:c r="A469" s="5" t="s">
+        <x:v>356</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="470" spans="1:1">
+      <x:c r="A470" s="5" t="s">
+        <x:v>336</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="471" spans="1:1">
+      <x:c r="A471" s="5" t="s">
+        <x:v>104</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="472" spans="1:1">
+      <x:c r="A472" s="5" t="s">
+        <x:v>477</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="473" spans="1:1">
+      <x:c r="A473" s="5" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="474" spans="1:1">
+      <x:c r="A474" s="5" t="s">
+        <x:v>337</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="475" spans="1:1">
+      <x:c r="A475" s="5" t="s">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="476" spans="1:1">
+      <x:c r="A476" s="5" t="s">
+        <x:v>94</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="477" spans="1:1">
+      <x:c r="A477" s="5" t="s">
+        <x:v>338</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="478" spans="1:1">
+      <x:c r="A478" s="5" t="s">
+        <x:v>321</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="479" spans="1:1">
+      <x:c r="A479" s="5" t="s">
+        <x:v>101</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="480" spans="1:1">
+      <x:c r="A480" s="5" t="s">
+        <x:v>102</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="481" spans="1:1">
+      <x:c r="A481" s="5" t="s">
+        <x:v>155</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="482" spans="1:1">
+      <x:c r="A482" s="5" t="s">
+        <x:v>498</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="483" spans="1:1">
+      <x:c r="A483" s="5" t="s">
+        <x:v>474</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="484" spans="1:1">
+      <x:c r="A484" s="5" t="s">
+        <x:v>144</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="485" spans="1:1">
+      <x:c r="A485" s="5" t="s">
+        <x:v>334</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="486" spans="1:1">
+      <x:c r="A486" s="5" t="s">
+        <x:v>130</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="487" spans="1:1">
+      <x:c r="A487" s="5" t="s">
+        <x:v>443</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="488" spans="1:1">
+      <x:c r="A488" s="5" t="s">
+        <x:v>153</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="489" spans="1:1">
+      <x:c r="A489" s="5" t="s">
+        <x:v>119</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="490" spans="1:1">
+      <x:c r="A490" s="5" t="s">
+        <x:v>135</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="491" spans="1:1">
+      <x:c r="A491" s="5" t="s">
+        <x:v>500</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="492" spans="1:1">
+      <x:c r="A492" s="5" t="s">
+        <x:v>459</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="493" spans="1:1">
+      <x:c r="A493" s="5" t="s">
+        <x:v>131</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="494" spans="1:1">
+      <x:c r="A494" s="5" t="s">
+        <x:v>479</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="495" spans="1:1">
+      <x:c r="A495" s="5" t="s">
+        <x:v>143</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="496" spans="1:1">
+      <x:c r="A496" s="5" t="s">
+        <x:v>112</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="497" spans="1:1">
+      <x:c r="A497" s="5" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="498" spans="1:1">
+      <x:c r="A498" s="5" t="s">
+        <x:v>462</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="499" spans="1:1">
+      <x:c r="A499" s="5" t="s">
+        <x:v>464</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="500" spans="1:1">
+      <x:c r="A500" s="5" t="s">
+        <x:v>331</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="501" spans="1:1">
+      <x:c r="A501" s="5" t="s">
+        <x:v>145</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="502" spans="1:1">
+      <x:c r="A502" s="5" t="s">
+        <x:v>122</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="503" spans="1:1">
+      <x:c r="A503" s="5" t="s">
+        <x:v>133</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="504" spans="1:1">
+      <x:c r="A504" s="5" t="s">
+        <x:v>332</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="505" spans="1:1">
+      <x:c r="A505" s="5" t="s">
+        <x:v>152</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="506" spans="1:1">
+      <x:c r="A506" s="5" t="s">
+        <x:v>136</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="507" spans="1:1">
+      <x:c r="A507" s="5" t="s">
+        <x:v>151</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="508" spans="1:1">
+      <x:c r="A508" s="5" t="s">
+        <x:v>340</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="509" spans="1:1">
+      <x:c r="A509" s="5" t="s">
+        <x:v>484</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="510" spans="1:1">
+      <x:c r="A510" s="5" t="s">
+        <x:v>325</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="511" spans="1:1">
+      <x:c r="A511" s="5" t="s">
+        <x:v>326</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="512" spans="1:1">
+      <x:c r="A512" s="5" t="s">
+        <x:v>154</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="513" spans="1:1">
+      <x:c r="A513" s="5" t="s">
+        <x:v>147</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="514" spans="1:1">
+      <x:c r="A514" s="5" t="s">
+        <x:v>497</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="515" spans="1:1">
+      <x:c r="A515" s="5" t="s">
+        <x:v>127</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="516" spans="1:1">
+      <x:c r="A516" s="5" t="s">
+        <x:v>320</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="517" spans="1:1">
+      <x:c r="A517" s="5" t="s">
+        <x:v>494</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="518" spans="1:1">
+      <x:c r="A518" s="5" t="s">
+        <x:v>137</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="519" spans="1:1">
+      <x:c r="A519" s="5" t="s">
+        <x:v>149</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="520" spans="1:1">
+      <x:c r="A520" s="5" t="s">
+        <x:v>138</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="521" spans="1:1">
+      <x:c r="A521" s="5" t="s">
+        <x:v>146</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="522" spans="1:1">
+      <x:c r="A522" s="5" t="s">
+        <x:v>128</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="523" spans="1:1">
+      <x:c r="A523" s="5" t="s">
+        <x:v>495</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="524" spans="1:1">
+      <x:c r="A524" s="5" t="s">
+        <x:v>492</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="525" spans="1:1">
+      <x:c r="A525" s="5" t="s">
+        <x:v>125</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="526" spans="1:1">
+      <x:c r="A526" s="5" t="s">
+        <x:v>132</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="527" spans="1:1">
+      <x:c r="A527" s="5" t="s">
+        <x:v>140</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="528" spans="1:1">
+      <x:c r="A528" s="5" t="s">
+        <x:v>159</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="529" spans="1:1">
+      <x:c r="A529" s="5" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="530" spans="1:1">
+      <x:c r="A530" s="5" t="s">
+        <x:v>323</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="531" spans="1:1">
+      <x:c r="A531" s="5" t="s">
+        <x:v>489</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="532" spans="1:1">
+      <x:c r="A532" s="5" t="s">
+        <x:v>449</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="533" spans="1:1">
+      <x:c r="A533" s="5" t="s">
+        <x:v>158</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="534" spans="1:1">
+      <x:c r="A534" s="5" t="s">
+        <x:v>157</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="535" spans="1:1">
+      <x:c r="A535" s="5" t="s">
+        <x:v>302</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="536" spans="1:1">
+      <x:c r="A536" s="5" t="s">
+        <x:v>111</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="537" spans="1:1">
+      <x:c r="A537" s="5" t="s">
+        <x:v>482</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="538" spans="1:1">
+      <x:c r="A538" s="5" t="s">
+        <x:v>141</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="539" spans="1:1">
+      <x:c r="A539" s="5" t="s">
+        <x:v>148</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="540" spans="1:1">
+      <x:c r="A540" s="5" t="s">
+        <x:v>139</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="541" spans="1:1">
+      <x:c r="A541" s="5" t="s">
+        <x:v>454</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="542" spans="1:1">
+      <x:c r="A542" s="5" t="s">
+        <x:v>156</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="543" spans="1:1">
+      <x:c r="A543" s="5" t="s">
+        <x:v>312</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="544" spans="1:1">
+      <x:c r="A544" s="5" t="s">
+        <x:v>324</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="545" spans="1:1">
+      <x:c r="A545" s="5" t="s">
+        <x:v>36</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="546" spans="1:1">
+      <x:c r="A546" s="5" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="547" spans="1:1">
+      <x:c r="A547" s="5" t="s">
+        <x:v>160</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="548" spans="1:1">
+      <x:c r="A548" s="5" t="s">
+        <x:v>27</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
